--- a/UT.Vol.BLL/HelperFiles/GroupVol.xlsx
+++ b/UT.Vol.BLL/HelperFiles/GroupVol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Table</t>
   </si>
@@ -38,25 +38,31 @@
     <t>[VolTeer].[Vol].[tblGroupVol]</t>
   </si>
   <si>
-    <t>ffece320-d093-4ba7-a56c-6d7dc8127a4c</t>
-  </si>
-  <si>
-    <t>eafcce35-6200-4c5a-aae1-6fad06f3467a</t>
-  </si>
-  <si>
-    <t>df91056c-6383-4fb6-b006-c6cee3df959b</t>
-  </si>
-  <si>
-    <t>8b6d44cd-6fca-4d42-afbe-a91fa43c4f4b</t>
-  </si>
-  <si>
-    <t>ca8a0ae5-1a4a-49fe-af42-015b6a17274b</t>
-  </si>
-  <si>
-    <t>72f51403-53b0-4a74-ab2b-d7fdd9d5657c</t>
-  </si>
-  <si>
-    <t>24a4e8af-c01e-4297-a1bb-f8356b259484</t>
+    <t>dba53101-f9b2-4dc0-85e7-11d472fd99cd</t>
+  </si>
+  <si>
+    <t>589178b4-aa4c-4276-a516-9460fa7714d3</t>
+  </si>
+  <si>
+    <t>293fe520-7e35-444a-8955-f02a911fed1c</t>
+  </si>
+  <si>
+    <t>34fb4310-9790-4b80-84cc-8c899f0308f7</t>
+  </si>
+  <si>
+    <t>6bd2cd4d-e58c-4c9f-8195-8c4f0ae9af1d</t>
+  </si>
+  <si>
+    <t>63aaaec0-0222-4cc6-b748-668f8675fb40</t>
+  </si>
+  <si>
+    <t>55f42ce3-4b5d-44ad-bb75-a0719ac5bab3</t>
+  </si>
+  <si>
+    <t>46e0eab8-9d77-4a4d-a642-bed325a80ba2</t>
+  </si>
+  <si>
+    <t>ec311095-16c4-4ea1-a9bc-9ddcda3b9b62</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -198,7 +204,7 @@
       <c r="B2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -208,8 +214,8 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "' ,'" &amp; D2 &amp; "','" &amp; E2 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','100','ffece320-d093-4ba7-a56c-6d7dc8127a4c' ,'1','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B2 &amp; "','" &amp; C2 &amp; "' ,'" &amp; D2 &amp; "','" &amp; E2 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','dba53101-f9b2-4dc0-85e7-11d472fd99cd' ,'1','1')</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,7 +225,7 @@
       <c r="B3" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="0" t="n">
@@ -229,8 +235,8 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "' ,'" &amp; D3 &amp; "','" &amp; E3 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','108','eafcce35-6200-4c5a-aae1-6fad06f3467a' ,'0','0')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B3 &amp; "','" &amp; C3 &amp; "' ,'" &amp; D3 &amp; "','" &amp; E3 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '108','589178b4-aa4c-4276-a516-9460fa7714d3' ,'0','0')</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +246,7 @@
       <c r="B4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -250,8 +256,8 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A4 &amp; "','" &amp; B4 &amp; "','" &amp; C4 &amp; "' ,'" &amp; D4 &amp; "','" &amp; E4 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','100','df91056c-6383-4fb6-b006-c6cee3df959b' ,'0','0')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B4 &amp; "','" &amp; C4 &amp; "' ,'" &amp; D4 &amp; "','" &amp; E4 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','293fe520-7e35-444a-8955-f02a911fed1c' ,'0','0')</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,7 +267,7 @@
       <c r="B5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -271,8 +277,8 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A5 &amp; "','" &amp; B5 &amp; "','" &amp; C5 &amp; "' ,'" &amp; D5 &amp; "','" &amp; E5 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','100','8b6d44cd-6fca-4d42-afbe-a91fa43c4f4b' ,'0','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B5 &amp; "','" &amp; C5 &amp; "' ,'" &amp; D5 &amp; "','" &amp; E5 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','34fb4310-9790-4b80-84cc-8c899f0308f7' ,'0','1')</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,7 +288,7 @@
       <c r="B6" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -292,8 +298,8 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A6 &amp; "','" &amp; B6 &amp; "','" &amp; C6 &amp; "' ,'" &amp; D6 &amp; "','" &amp; E6 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','104','ca8a0ae5-1a4a-49fe-af42-015b6a17274b' ,'0','0')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B6 &amp; "','" &amp; C6 &amp; "' ,'" &amp; D6 &amp; "','" &amp; E6 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '104','6bd2cd4d-e58c-4c9f-8195-8c4f0ae9af1d' ,'0','0')</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,7 +309,7 @@
       <c r="B7" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -313,8 +319,8 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A7 &amp; "','" &amp; B7 &amp; "','" &amp; C7 &amp; "' ,'" &amp; D7 &amp; "','" &amp; E7 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','104','72f51403-53b0-4a74-ab2b-d7fdd9d5657c' ,'1','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B7 &amp; "','" &amp; C7 &amp; "' ,'" &amp; D7 &amp; "','" &amp; E7 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '104','63aaaec0-0222-4cc6-b748-668f8675fb40' ,'1','1')</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,7 +330,7 @@
       <c r="B8" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -334,8 +340,8 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A8 &amp; "','" &amp; B8 &amp; "','" &amp; C8 &amp; "' ,'" &amp; D8 &amp; "','" &amp; E8 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','106','24a4e8af-c01e-4297-a1bb-f8356b259484' ,'1','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B8 &amp; "','" &amp; C8 &amp; "' ,'" &amp; D8 &amp; "','" &amp; E8 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '106','55f42ce3-4b5d-44ad-bb75-a0719ac5bab3' ,'1','1')</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,8 +351,8 @@
       <c r="B9" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -355,8 +361,8 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A9 &amp; "','" &amp; B9 &amp; "','" &amp; C9 &amp; "' ,'" &amp; D9 &amp; "','" &amp; E9 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','107','24a4e8af-c01e-4297-a1bb-f8356b259484' ,'1','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B9 &amp; "','" &amp; C9 &amp; "' ,'" &amp; D9 &amp; "','" &amp; E9 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '107','dba53101-f9b2-4dc0-85e7-11d472fd99cd' ,'1','1')</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,8 +372,8 @@
       <c r="B10" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -376,8 +382,8 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A10 &amp; "','" &amp; B10 &amp; "','" &amp; C10 &amp; "' ,'" &amp; D10 &amp; "','" &amp; E10 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','108','24a4e8af-c01e-4297-a1bb-f8356b259484' ,'1','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B10 &amp; "','" &amp; C10 &amp; "' ,'" &amp; D10 &amp; "','" &amp; E10 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '108','46e0eab8-9d77-4a4d-a642-bed325a80ba2' ,'1','1')</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,8 +393,8 @@
       <c r="B11" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -397,8 +403,8 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f aca="false">"INSERT INTO "&amp;A$2&amp;" ([" &amp;A$1 &amp;"],["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; A11 &amp; "','" &amp; B11 &amp; "','" &amp; C11 &amp; "' ,'" &amp; D11 &amp; "','" &amp; E11 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([Table],[GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '[VolTeer].[Vol].[tblGroupVol]','100','eafcce35-6200-4c5a-aae1-6fad06f3467a' ,'0','1')</v>
+        <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B11 &amp; "','" &amp; C11 &amp; "' ,'" &amp; D11 &amp; "','" &amp; E11 &amp; "')"</f>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','ec311095-16c4-4ea1-a9bc-9ddcda3b9b62' ,'0','1')</v>
       </c>
     </row>
   </sheetData>

--- a/UT.Vol.BLL/HelperFiles/GroupVol.xlsx
+++ b/UT.Vol.BLL/HelperFiles/GroupVol.xlsx
@@ -41,28 +41,28 @@
     <t>dba53101-f9b2-4dc0-85e7-11d472fd99cd</t>
   </si>
   <si>
+    <t>293fe520-7e35-444a-8955-f02a911fed1c</t>
+  </si>
+  <si>
+    <t>34fb4310-9790-4b80-84cc-8c899f0308f7</t>
+  </si>
+  <si>
+    <t>ec311095-16c4-4ea1-a9bc-9ddcda3b9b62</t>
+  </si>
+  <si>
+    <t>6bd2cd4d-e58c-4c9f-8195-8c4f0ae9af1d</t>
+  </si>
+  <si>
+    <t>63aaaec0-0222-4cc6-b748-668f8675fb40</t>
+  </si>
+  <si>
+    <t>55f42ce3-4b5d-44ad-bb75-a0719ac5bab3</t>
+  </si>
+  <si>
     <t>589178b4-aa4c-4276-a516-9460fa7714d3</t>
   </si>
   <si>
-    <t>293fe520-7e35-444a-8955-f02a911fed1c</t>
-  </si>
-  <si>
-    <t>34fb4310-9790-4b80-84cc-8c899f0308f7</t>
-  </si>
-  <si>
-    <t>6bd2cd4d-e58c-4c9f-8195-8c4f0ae9af1d</t>
-  </si>
-  <si>
-    <t>63aaaec0-0222-4cc6-b748-668f8675fb40</t>
-  </si>
-  <si>
-    <t>55f42ce3-4b5d-44ad-bb75-a0719ac5bab3</t>
-  </si>
-  <si>
     <t>46e0eab8-9d77-4a4d-a642-bed325a80ba2</t>
-  </si>
-  <si>
-    <t>ec311095-16c4-4ea1-a9bc-9ddcda3b9b62</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -202,7 +202,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>7</v>
@@ -215,7 +215,7 @@
       </c>
       <c r="F2" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B2 &amp; "','" &amp; C2 &amp; "' ,'" &amp; D2 &amp; "','" &amp; E2 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','dba53101-f9b2-4dc0-85e7-11d472fd99cd' ,'1','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '101','dba53101-f9b2-4dc0-85e7-11d472fd99cd' ,'1','1')</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,7 +223,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
@@ -236,7 +236,7 @@
       </c>
       <c r="F3" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B3 &amp; "','" &amp; C3 &amp; "' ,'" &amp; D3 &amp; "','" &amp; E3 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '108','589178b4-aa4c-4276-a516-9460fa7714d3' ,'0','0')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','293fe520-7e35-444a-8955-f02a911fed1c' ,'0','0')</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,11 +253,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B4 &amp; "','" &amp; C4 &amp; "' ,'" &amp; D4 &amp; "','" &amp; E4 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','293fe520-7e35-444a-8955-f02a911fed1c' ,'0','0')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','34fb4310-9790-4b80-84cc-8c899f0308f7' ,'0','1')</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,7 +278,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B5 &amp; "','" &amp; C5 &amp; "' ,'" &amp; D5 &amp; "','" &amp; E5 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','34fb4310-9790-4b80-84cc-8c899f0308f7' ,'0','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','ec311095-16c4-4ea1-a9bc-9ddcda3b9b62' ,'0','1')</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,14 +376,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B10 &amp; "','" &amp; C10 &amp; "' ,'" &amp; D10 &amp; "','" &amp; E10 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '108','46e0eab8-9d77-4a4d-a642-bed325a80ba2' ,'1','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '108','589178b4-aa4c-4276-a516-9460fa7714d3' ,'0','0')</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,20 +391,20 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="str">
         <f aca="false">"INSERT INTO "&amp;A$2&amp;" (["&amp;B$1&amp;"],["&amp;C$1&amp;"],["&amp;D$1&amp;"],["&amp;E$1&amp;"]) VALUES ( '" &amp; B11 &amp; "','" &amp; C11 &amp; "' ,'" &amp; D11 &amp; "','" &amp; E11 &amp; "')"</f>
-        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '100','ec311095-16c4-4ea1-a9bc-9ddcda3b9b62' ,'0','1')</v>
+        <v>INSERT INTO [VolTeer].[Vol].[tblGroupVol] ([GroupID],[VolID],[PrimaryVolID],[Admin]) VALUES ( '108','46e0eab8-9d77-4a4d-a642-bed325a80ba2' ,'1','1')</v>
       </c>
     </row>
   </sheetData>
